--- a/data/pca/factorExposure/factorExposure_2018-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01089387588249086</v>
+        <v>-0.01353801292487575</v>
       </c>
       <c r="C2">
-        <v>0.0308282602582907</v>
+        <v>0.02624661085037423</v>
       </c>
       <c r="D2">
-        <v>-0.02386508632207871</v>
+        <v>0.02849593994115385</v>
       </c>
       <c r="E2">
-        <v>0.005875675246685768</v>
+        <v>0.01937940693752165</v>
       </c>
       <c r="F2">
-        <v>0.09336753687553105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01242918891084573</v>
+      </c>
+      <c r="G2">
+        <v>0.02724774931193981</v>
+      </c>
+      <c r="H2">
+        <v>-0.0446206745251068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07739759616576349</v>
+        <v>-0.05656878655319654</v>
       </c>
       <c r="C3">
-        <v>0.05225601940123636</v>
+        <v>0.07754353509107843</v>
       </c>
       <c r="D3">
-        <v>-0.005004440863749397</v>
+        <v>0.01770930340565383</v>
       </c>
       <c r="E3">
-        <v>0.02468628752392657</v>
+        <v>0.007287508065584812</v>
       </c>
       <c r="F3">
-        <v>0.3404357673981891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07793385544020837</v>
+      </c>
+      <c r="G3">
+        <v>0.1339080349561179</v>
+      </c>
+      <c r="H3">
+        <v>-0.1028933732435877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04414941275832023</v>
+        <v>-0.03748980896231366</v>
       </c>
       <c r="C4">
-        <v>0.02129502043207969</v>
+        <v>0.06138125936915685</v>
       </c>
       <c r="D4">
-        <v>-0.02991889416249543</v>
+        <v>0.02686709014936894</v>
       </c>
       <c r="E4">
-        <v>-0.03860138271202387</v>
+        <v>-0.01656923183310038</v>
       </c>
       <c r="F4">
-        <v>0.06046412601364742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02334918105957197</v>
+      </c>
+      <c r="G4">
+        <v>0.04921156544763703</v>
+      </c>
+      <c r="H4">
+        <v>-0.05860678796789765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03270893403348735</v>
+        <v>-0.0213787049736596</v>
       </c>
       <c r="C6">
-        <v>0.01880939390118239</v>
+        <v>0.05978862290419824</v>
       </c>
       <c r="D6">
-        <v>-0.03807206528513669</v>
+        <v>0.02190299707076413</v>
       </c>
       <c r="E6">
-        <v>-0.02574864090598093</v>
+        <v>-0.005094542165982369</v>
       </c>
       <c r="F6">
-        <v>0.01336448578687876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02324126622577235</v>
+      </c>
+      <c r="G6">
+        <v>0.02198677434133027</v>
+      </c>
+      <c r="H6">
+        <v>-0.05870745913540253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04114212635547292</v>
+        <v>-0.008862810758949423</v>
       </c>
       <c r="C7">
-        <v>-0.02489182444952549</v>
+        <v>0.03275498590575779</v>
       </c>
       <c r="D7">
-        <v>-0.02652374827493774</v>
+        <v>0.01569724813400742</v>
       </c>
       <c r="E7">
-        <v>-0.01604980991528807</v>
+        <v>-0.04411367312648958</v>
       </c>
       <c r="F7">
-        <v>0.03527697209151089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008500250655704991</v>
+      </c>
+      <c r="G7">
+        <v>0.0161816404891834</v>
+      </c>
+      <c r="H7">
+        <v>-0.03584958572534742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01575836513125846</v>
+        <v>0.0020917984021847</v>
       </c>
       <c r="C8">
-        <v>0.002187542297129433</v>
+        <v>0.01172999035532192</v>
       </c>
       <c r="D8">
-        <v>-0.04044233352012808</v>
+        <v>0.003650888660314109</v>
       </c>
       <c r="E8">
-        <v>-0.02884099907278597</v>
+        <v>-0.01012297278496501</v>
       </c>
       <c r="F8">
-        <v>0.06299748034304853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.006433826690578884</v>
+      </c>
+      <c r="G8">
+        <v>0.04149037211712332</v>
+      </c>
+      <c r="H8">
+        <v>-0.03086972353961131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03203112016800033</v>
+        <v>-0.02188084438513974</v>
       </c>
       <c r="C9">
-        <v>0.01378049486067479</v>
+        <v>0.04713866623723233</v>
       </c>
       <c r="D9">
-        <v>-0.03146991053414483</v>
+        <v>0.01928306871839842</v>
       </c>
       <c r="E9">
-        <v>-0.01576910526976496</v>
+        <v>-0.006623144683613849</v>
       </c>
       <c r="F9">
-        <v>0.07926895478437411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.005482157099640401</v>
+      </c>
+      <c r="G9">
+        <v>0.04417859433206344</v>
+      </c>
+      <c r="H9">
+        <v>-0.05324705335208633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03803173104074212</v>
+        <v>-0.1333059328053564</v>
       </c>
       <c r="C10">
-        <v>0.006560339263973015</v>
+        <v>-0.1343126220362397</v>
       </c>
       <c r="D10">
-        <v>0.1446476667776132</v>
+        <v>-0.04701379217633707</v>
       </c>
       <c r="E10">
-        <v>0.04339821701885899</v>
+        <v>0.0009419100369100142</v>
       </c>
       <c r="F10">
-        <v>0.05929999114724915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04890639866580642</v>
+      </c>
+      <c r="G10">
+        <v>0.01960269833096382</v>
+      </c>
+      <c r="H10">
+        <v>0.01479439383941003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0279119312735395</v>
+        <v>-0.01599261396069655</v>
       </c>
       <c r="C11">
-        <v>0.02580100033817109</v>
+        <v>0.0505392144274386</v>
       </c>
       <c r="D11">
-        <v>-0.0350652345686635</v>
+        <v>0.006832089308458777</v>
       </c>
       <c r="E11">
-        <v>-0.0224950601432174</v>
+        <v>0.001477300968089227</v>
       </c>
       <c r="F11">
-        <v>0.02617903051074032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.004251541600438572</v>
+      </c>
+      <c r="G11">
+        <v>0.02036062705829686</v>
+      </c>
+      <c r="H11">
+        <v>-0.05132452022906103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03927007068543793</v>
+        <v>-0.01962641127076921</v>
       </c>
       <c r="C12">
-        <v>0.02639984666784257</v>
+        <v>0.04820127366128529</v>
       </c>
       <c r="D12">
-        <v>-0.02712079905948213</v>
+        <v>0.01020797626725475</v>
       </c>
       <c r="E12">
-        <v>-0.03166727800284362</v>
+        <v>-0.01158136440149108</v>
       </c>
       <c r="F12">
-        <v>0.002128979440286987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01047535495047762</v>
+      </c>
+      <c r="G12">
+        <v>0.008298528187271821</v>
+      </c>
+      <c r="H12">
+        <v>-0.02009578391990252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.00789061054558414</v>
+        <v>-0.01643833299640809</v>
       </c>
       <c r="C13">
-        <v>0.02176531570397148</v>
+        <v>0.02121012505990051</v>
       </c>
       <c r="D13">
-        <v>-0.008863679279104916</v>
+        <v>0.02361861001048259</v>
       </c>
       <c r="E13">
-        <v>-0.009430661424094175</v>
+        <v>0.01335433105437247</v>
       </c>
       <c r="F13">
-        <v>0.07433817314137273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.00659190687958252</v>
+      </c>
+      <c r="G13">
+        <v>0.05435120705397912</v>
+      </c>
+      <c r="H13">
+        <v>-0.0681597821807991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02490484411652387</v>
+        <v>-0.009373052728167545</v>
       </c>
       <c r="C14">
-        <v>0.0005889716892460839</v>
+        <v>0.0204881466366912</v>
       </c>
       <c r="D14">
-        <v>-0.01626464356619358</v>
+        <v>0.009052498009822369</v>
       </c>
       <c r="E14">
-        <v>-0.01751576963284026</v>
+        <v>-0.01477193699506496</v>
       </c>
       <c r="F14">
-        <v>0.04760919584229911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.008547554107008156</v>
+      </c>
+      <c r="G14">
+        <v>0.03632447936079251</v>
+      </c>
+      <c r="H14">
+        <v>-0.01138830447194721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02944023961186878</v>
+        <v>-0.01763832348540777</v>
       </c>
       <c r="C16">
-        <v>0.025805975276671</v>
+        <v>0.04358134454448914</v>
       </c>
       <c r="D16">
-        <v>-0.03790371814899837</v>
+        <v>0.005121229796020092</v>
       </c>
       <c r="E16">
-        <v>-0.02432457397488396</v>
+        <v>-0.002895152239118372</v>
       </c>
       <c r="F16">
-        <v>0.02844578833343828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.005553970562624725</v>
+      </c>
+      <c r="G16">
+        <v>0.02041845234382913</v>
+      </c>
+      <c r="H16">
+        <v>-0.03701446256136297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03210582956746926</v>
+        <v>-0.01731379124030442</v>
       </c>
       <c r="C19">
-        <v>0.02067878843912045</v>
+        <v>0.04056048414268065</v>
       </c>
       <c r="D19">
-        <v>-0.04188118433529176</v>
+        <v>0.01711154340788045</v>
       </c>
       <c r="E19">
-        <v>-0.03932661618983088</v>
+        <v>-0.01099771937723141</v>
       </c>
       <c r="F19">
-        <v>0.07701847721551534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.003788870668453832</v>
+      </c>
+      <c r="G19">
+        <v>0.05708862784032741</v>
+      </c>
+      <c r="H19">
+        <v>-0.05078074301497412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004273882346613375</v>
+        <v>-0.004397490176629451</v>
       </c>
       <c r="C20">
-        <v>-0.00837544893910714</v>
+        <v>0.01951804143469875</v>
       </c>
       <c r="D20">
-        <v>-0.002915242021027827</v>
+        <v>0.01329071399025798</v>
       </c>
       <c r="E20">
-        <v>-0.01314577506742425</v>
+        <v>-0.00504042862586503</v>
       </c>
       <c r="F20">
-        <v>0.05500254669185983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01241684753900398</v>
+      </c>
+      <c r="G20">
+        <v>0.04676711128493262</v>
+      </c>
+      <c r="H20">
+        <v>-0.02684057354441869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02237725642262972</v>
+        <v>-0.01069830541282764</v>
       </c>
       <c r="C21">
-        <v>-0.01331165137655533</v>
+        <v>0.01880623068018748</v>
       </c>
       <c r="D21">
-        <v>-0.02978576156250373</v>
+        <v>0.01521711528786475</v>
       </c>
       <c r="E21">
-        <v>-0.005695172474813411</v>
+        <v>-0.01804594848700802</v>
       </c>
       <c r="F21">
-        <v>0.02608635537812862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01735390302865706</v>
+      </c>
+      <c r="G21">
+        <v>0.03546607271560295</v>
+      </c>
+      <c r="H21">
+        <v>-0.05250693954869053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02646832608878995</v>
+        <v>-0.01205911581141674</v>
       </c>
       <c r="C24">
-        <v>0.02316287957066408</v>
+        <v>0.04284885088523615</v>
       </c>
       <c r="D24">
-        <v>-0.01884569215457688</v>
+        <v>0.01048369198508639</v>
       </c>
       <c r="E24">
-        <v>-0.0231096032265897</v>
+        <v>-0.001180126616686338</v>
       </c>
       <c r="F24">
-        <v>0.03148744615655735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.005204097422517465</v>
+      </c>
+      <c r="G24">
+        <v>0.01495877509543629</v>
+      </c>
+      <c r="H24">
+        <v>-0.04339619366358444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02947108527181199</v>
+        <v>-0.02546576047472918</v>
       </c>
       <c r="C25">
-        <v>0.02129880391152004</v>
+        <v>0.04741128897526847</v>
       </c>
       <c r="D25">
-        <v>-0.02947993759334347</v>
+        <v>0.01433555801290646</v>
       </c>
       <c r="E25">
-        <v>-0.01878299427636947</v>
+        <v>-0.006499133748776448</v>
       </c>
       <c r="F25">
-        <v>0.03271763750499225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01192538793561279</v>
+      </c>
+      <c r="G25">
+        <v>0.02053388303498472</v>
+      </c>
+      <c r="H25">
+        <v>-0.04371125781869305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01421694937551033</v>
+        <v>-0.008581483220266781</v>
       </c>
       <c r="C26">
-        <v>0.009790040717317027</v>
+        <v>0.004954374799230683</v>
       </c>
       <c r="D26">
-        <v>-0.01755406908093006</v>
+        <v>0.02282896737815051</v>
       </c>
       <c r="E26">
-        <v>0.002027735624398254</v>
+        <v>-0.001888459614537001</v>
       </c>
       <c r="F26">
-        <v>0.05476326392598464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01084827965281946</v>
+      </c>
+      <c r="G26">
+        <v>0.02360381224723664</v>
+      </c>
+      <c r="H26">
+        <v>-0.01821212548091668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02905523161651799</v>
+        <v>-0.01030454567916484</v>
       </c>
       <c r="C27">
-        <v>0.01677031159905937</v>
+        <v>0.01096694327694941</v>
       </c>
       <c r="D27">
-        <v>0.001107951627963678</v>
+        <v>-0.0004344618662464318</v>
       </c>
       <c r="E27">
-        <v>-0.0331235327155802</v>
+        <v>-0.00664769238817216</v>
       </c>
       <c r="F27">
-        <v>0.01044956469058058</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002777555287725361</v>
+      </c>
+      <c r="G27">
+        <v>0.01006205480527765</v>
+      </c>
+      <c r="H27">
+        <v>0.00757579108184483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07300780781266972</v>
+        <v>-0.1863007086343649</v>
       </c>
       <c r="C28">
-        <v>0.01653672868926075</v>
+        <v>-0.1791357844734275</v>
       </c>
       <c r="D28">
-        <v>0.2129931075485687</v>
+        <v>-0.04969571567103044</v>
       </c>
       <c r="E28">
-        <v>0.08324450200284549</v>
+        <v>-0.0122181572340188</v>
       </c>
       <c r="F28">
-        <v>0.05645787145421893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04748845682624037</v>
+      </c>
+      <c r="G28">
+        <v>0.008173927705853753</v>
+      </c>
+      <c r="H28">
+        <v>0.01713751543267227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02617936453461609</v>
+        <v>-0.01447419524766816</v>
       </c>
       <c r="C29">
-        <v>0.001831452551141929</v>
+        <v>0.01914497487735002</v>
       </c>
       <c r="D29">
-        <v>-0.01929812038698438</v>
+        <v>0.007667596792496873</v>
       </c>
       <c r="E29">
-        <v>-0.01965507497788796</v>
+        <v>-0.01403071765051785</v>
       </c>
       <c r="F29">
-        <v>0.0442329346866699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.009397234930930899</v>
+      </c>
+      <c r="G29">
+        <v>0.03574553918691509</v>
+      </c>
+      <c r="H29">
+        <v>-0.005976662279381142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03718319509979739</v>
+        <v>-0.0275917447959763</v>
       </c>
       <c r="C30">
-        <v>0.07533614167035829</v>
+        <v>0.08634086063429681</v>
       </c>
       <c r="D30">
-        <v>-0.05733886407258929</v>
+        <v>0.03614204545756426</v>
       </c>
       <c r="E30">
-        <v>-0.03037734513064119</v>
+        <v>0.03182706594020107</v>
       </c>
       <c r="F30">
-        <v>0.08695261337904049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.008955740007080925</v>
+      </c>
+      <c r="G30">
+        <v>0.06275944190260661</v>
+      </c>
+      <c r="H30">
+        <v>-0.07281435072403752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04621985714170507</v>
+        <v>-0.04105801854510267</v>
       </c>
       <c r="C31">
-        <v>0.03809137775093561</v>
+        <v>0.03109695310616294</v>
       </c>
       <c r="D31">
-        <v>-0.01499852000067864</v>
+        <v>0.00348422568292239</v>
       </c>
       <c r="E31">
-        <v>-0.02565600148238002</v>
+        <v>-0.0002329168329213312</v>
       </c>
       <c r="F31">
-        <v>0.02997892725408594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.006145594460133842</v>
+      </c>
+      <c r="G31">
+        <v>0.01709010497434712</v>
+      </c>
+      <c r="H31">
+        <v>-0.004989121046878114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02511576426466009</v>
+        <v>-0.002309756465052884</v>
       </c>
       <c r="C32">
-        <v>-0.01190551966568662</v>
+        <v>0.01402463287093664</v>
       </c>
       <c r="D32">
-        <v>-0.0518502259027676</v>
+        <v>-0.006550667054883984</v>
       </c>
       <c r="E32">
-        <v>-0.0419156127938009</v>
+        <v>-0.0313383723961001</v>
       </c>
       <c r="F32">
-        <v>0.04388332796420751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01047843655207972</v>
+      </c>
+      <c r="G32">
+        <v>0.05406315635857206</v>
+      </c>
+      <c r="H32">
+        <v>-0.04579755312061214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02888718502250835</v>
+        <v>-0.01814580049459369</v>
       </c>
       <c r="C33">
-        <v>0.04714705660982491</v>
+        <v>0.0471350269235444</v>
       </c>
       <c r="D33">
-        <v>-0.0470770534493454</v>
+        <v>0.0182524257567282</v>
       </c>
       <c r="E33">
-        <v>-0.004302654700360142</v>
+        <v>0.01925479536246603</v>
       </c>
       <c r="F33">
-        <v>0.06186373472450702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0219801308501193</v>
+      </c>
+      <c r="G33">
+        <v>0.03334368584404096</v>
+      </c>
+      <c r="H33">
+        <v>-0.05002472159042824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03534737169575926</v>
+        <v>-0.02502907589843511</v>
       </c>
       <c r="C34">
-        <v>0.0198787686949458</v>
+        <v>0.05207197823983865</v>
       </c>
       <c r="D34">
-        <v>-0.03975145484536398</v>
+        <v>-0.001485393674664066</v>
       </c>
       <c r="E34">
-        <v>-0.03457758639457478</v>
+        <v>-0.01420834036555532</v>
       </c>
       <c r="F34">
-        <v>0.02666862476983193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01475828678844166</v>
+      </c>
+      <c r="G34">
+        <v>0.01348957301857822</v>
+      </c>
+      <c r="H34">
+        <v>-0.03653389474810025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01867392512349209</v>
+        <v>-0.01459294815556293</v>
       </c>
       <c r="C36">
-        <v>0.001425621303644485</v>
+        <v>0.005889381175594075</v>
       </c>
       <c r="D36">
-        <v>-0.008876709164731052</v>
+        <v>0.009580036572215967</v>
       </c>
       <c r="E36">
-        <v>-0.01316865559510238</v>
+        <v>-0.008558324817017919</v>
       </c>
       <c r="F36">
-        <v>0.02888529423097718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006856230219549308</v>
+      </c>
+      <c r="G36">
+        <v>0.01615607883341143</v>
+      </c>
+      <c r="H36">
+        <v>-0.01570145678465282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007092898771580174</v>
+        <v>-0.02354230068468297</v>
       </c>
       <c r="C38">
-        <v>0.004892104347574822</v>
+        <v>0.01923993170317255</v>
       </c>
       <c r="D38">
-        <v>-0.001197246166941988</v>
+        <v>-0.008094542481835582</v>
       </c>
       <c r="E38">
-        <v>0.02059867024059308</v>
+        <v>-0.001200848407099871</v>
       </c>
       <c r="F38">
-        <v>0.04477971361546922</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003461072820781899</v>
+      </c>
+      <c r="G38">
+        <v>0.02164391655582662</v>
+      </c>
+      <c r="H38">
+        <v>-0.03323276527766741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02683933147666727</v>
+        <v>-0.005801507907059418</v>
       </c>
       <c r="C39">
-        <v>0.02495274084314575</v>
+        <v>0.08543283394536452</v>
       </c>
       <c r="D39">
-        <v>-0.05707108666020781</v>
+        <v>0.02267334066704126</v>
       </c>
       <c r="E39">
-        <v>-0.02544999811940781</v>
+        <v>0.006200613130059174</v>
       </c>
       <c r="F39">
-        <v>0.0473386153068644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.004864140531659111</v>
+      </c>
+      <c r="G39">
+        <v>0.03075892906692751</v>
+      </c>
+      <c r="H39">
+        <v>-0.08028446932244286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01221273221600204</v>
+        <v>-0.02207487991067062</v>
       </c>
       <c r="C40">
-        <v>0.05128216804608898</v>
+        <v>0.03001904513332844</v>
       </c>
       <c r="D40">
-        <v>-0.01810784959784045</v>
+        <v>0.01221058136120801</v>
       </c>
       <c r="E40">
-        <v>-0.03221407856692966</v>
+        <v>0.02336408182243535</v>
       </c>
       <c r="F40">
-        <v>0.0395495690640526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0203577299440782</v>
+      </c>
+      <c r="G40">
+        <v>0.02394498269168589</v>
+      </c>
+      <c r="H40">
+        <v>-0.05480820641878214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007354512996826312</v>
+        <v>-0.01221619209306439</v>
       </c>
       <c r="C41">
-        <v>-0.0007993459282573963</v>
+        <v>-0.008006778636795038</v>
       </c>
       <c r="D41">
-        <v>-0.005812004249954049</v>
+        <v>0.0004218424665173638</v>
       </c>
       <c r="E41">
-        <v>0.01141180794546635</v>
+        <v>-0.004845729318826694</v>
       </c>
       <c r="F41">
-        <v>0.004573206317669859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007562750393048315</v>
+      </c>
+      <c r="G41">
+        <v>-0.003538490911170969</v>
+      </c>
+      <c r="H41">
+        <v>0.004930353970436704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2022519484195524</v>
+        <v>-0.08994273401874117</v>
       </c>
       <c r="C42">
-        <v>0.2429999031042118</v>
+        <v>0.1874463818547024</v>
       </c>
       <c r="D42">
-        <v>-0.2593006235280533</v>
+        <v>0.153676186070547</v>
       </c>
       <c r="E42">
-        <v>0.8516095844641656</v>
+        <v>0.2096802953950506</v>
       </c>
       <c r="F42">
-        <v>-0.2549269655807024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.679926066665127</v>
+      </c>
+      <c r="G42">
+        <v>-0.6364427703273872</v>
+      </c>
+      <c r="H42">
+        <v>-0.06147415454062437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006608606699876955</v>
+        <v>-0.01320733923319742</v>
       </c>
       <c r="C43">
-        <v>0.005082683594192769</v>
+        <v>-0.007917532252548713</v>
       </c>
       <c r="D43">
-        <v>-0.01001765724859995</v>
+        <v>0.001218320521855875</v>
       </c>
       <c r="E43">
-        <v>0.001412714253602504</v>
+        <v>-0.0004217460755241019</v>
       </c>
       <c r="F43">
-        <v>0.0244512681353965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008141122749346225</v>
+      </c>
+      <c r="G43">
+        <v>-0.0007610066322669084</v>
+      </c>
+      <c r="H43">
+        <v>-0.004109554082129506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02587547256131435</v>
+        <v>-0.008791651471570365</v>
       </c>
       <c r="C44">
-        <v>-0.001458108243177854</v>
+        <v>0.03878360801294072</v>
       </c>
       <c r="D44">
-        <v>-0.02952447468270381</v>
+        <v>0.009801734205514761</v>
       </c>
       <c r="E44">
-        <v>0.003401062174746031</v>
+        <v>-0.0150615530228545</v>
       </c>
       <c r="F44">
-        <v>0.09171076238712261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02492605408906722</v>
+      </c>
+      <c r="G44">
+        <v>0.03088486632802321</v>
+      </c>
+      <c r="H44">
+        <v>-0.05854132725676001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01988335742593271</v>
+        <v>-0.006337724594228211</v>
       </c>
       <c r="C46">
-        <v>0.01217250071121564</v>
+        <v>0.01327618689464122</v>
       </c>
       <c r="D46">
-        <v>-0.05059847086713609</v>
+        <v>0.01197329244615929</v>
       </c>
       <c r="E46">
-        <v>-0.02448671572952934</v>
+        <v>-0.0019748789977115</v>
       </c>
       <c r="F46">
-        <v>0.05966365945767681</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01334004732708961</v>
+      </c>
+      <c r="G46">
+        <v>0.03372618012167183</v>
+      </c>
+      <c r="H46">
+        <v>-0.009297468501306418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07394688545419353</v>
+        <v>-0.0561830013609513</v>
       </c>
       <c r="C47">
-        <v>0.05692529232590859</v>
+        <v>0.06741502664441559</v>
       </c>
       <c r="D47">
-        <v>-0.006416677999728419</v>
+        <v>-0.0001394325196018381</v>
       </c>
       <c r="E47">
-        <v>-0.03676798236415987</v>
+        <v>-0.006893940593280568</v>
       </c>
       <c r="F47">
-        <v>0.003579235363226853</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.006265324130839075</v>
+      </c>
+      <c r="G47">
+        <v>0.003757107401148883</v>
+      </c>
+      <c r="H47">
+        <v>0.03165268880979953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01707061163995985</v>
+        <v>-0.0138350600785313</v>
       </c>
       <c r="C48">
-        <v>0.01168552805403285</v>
+        <v>0.01567571416421994</v>
       </c>
       <c r="D48">
-        <v>-0.01652356595624614</v>
+        <v>0.001833786965500282</v>
       </c>
       <c r="E48">
-        <v>-0.01310340853767889</v>
+        <v>-0.001950301626785098</v>
       </c>
       <c r="F48">
-        <v>0.03394135866414309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.004783781821940045</v>
+      </c>
+      <c r="G48">
+        <v>0.01854818774490117</v>
+      </c>
+      <c r="H48">
+        <v>-0.01812713957600022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07897484598140331</v>
+        <v>-0.06086557498169817</v>
       </c>
       <c r="C50">
-        <v>0.03950458359698879</v>
+        <v>0.06327678639185418</v>
       </c>
       <c r="D50">
-        <v>-0.03007621705100016</v>
+        <v>0.0005185825595296883</v>
       </c>
       <c r="E50">
-        <v>-0.0244816437114765</v>
+        <v>-0.01872341600580661</v>
       </c>
       <c r="F50">
-        <v>0.0166770853851385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.001753595304685161</v>
+      </c>
+      <c r="G50">
+        <v>0.008245968295350854</v>
+      </c>
+      <c r="H50">
+        <v>0.0159659060482622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02226196128717436</v>
+        <v>-0.01229305282964578</v>
       </c>
       <c r="C51">
-        <v>0.008081637495071306</v>
+        <v>0.01364018519373088</v>
       </c>
       <c r="D51">
-        <v>0.003110542487292679</v>
+        <v>0.00713756771770199</v>
       </c>
       <c r="E51">
-        <v>-0.01234361502677124</v>
+        <v>-0.008761944119997223</v>
       </c>
       <c r="F51">
-        <v>0.08260805296660979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01178790899080664</v>
+      </c>
+      <c r="G51">
+        <v>0.0339301204031402</v>
+      </c>
+      <c r="H51">
+        <v>-0.04176923150985482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08056347613174326</v>
+        <v>-0.07319011804597081</v>
       </c>
       <c r="C53">
-        <v>0.06019918026102228</v>
+        <v>0.1038274905924754</v>
       </c>
       <c r="D53">
-        <v>-0.03601994470040923</v>
+        <v>0.004659993396737998</v>
       </c>
       <c r="E53">
-        <v>-0.0396991915061578</v>
+        <v>-0.01011308248955419</v>
       </c>
       <c r="F53">
-        <v>-0.03433532058182125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02754665150957066</v>
+      </c>
+      <c r="G53">
+        <v>-0.01496946695778163</v>
+      </c>
+      <c r="H53">
+        <v>0.02947990905252909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02627378202527839</v>
+        <v>-0.02344487116719206</v>
       </c>
       <c r="C54">
-        <v>0.003753548069478987</v>
+        <v>0.0001309988695834215</v>
       </c>
       <c r="D54">
-        <v>0.005658661129029373</v>
+        <v>-0.007021813180298125</v>
       </c>
       <c r="E54">
-        <v>-0.02151158249156017</v>
+        <v>-0.008216740217402518</v>
       </c>
       <c r="F54">
-        <v>0.02985557112320827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0156151145078881</v>
+      </c>
+      <c r="G54">
+        <v>0.03628934859798118</v>
+      </c>
+      <c r="H54">
+        <v>0.00184030794661538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08132266308423165</v>
+        <v>-0.05412452640476756</v>
       </c>
       <c r="C55">
-        <v>0.05604368405664412</v>
+        <v>0.09333021008380953</v>
       </c>
       <c r="D55">
-        <v>-0.04042150572431884</v>
+        <v>0.00549717106398016</v>
       </c>
       <c r="E55">
-        <v>-0.02973136683386502</v>
+        <v>-0.01109039501180385</v>
       </c>
       <c r="F55">
-        <v>-0.0346969881940901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.008850574840606267</v>
+      </c>
+      <c r="G55">
+        <v>-0.003339064580116159</v>
+      </c>
+      <c r="H55">
+        <v>0.03783438928249623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.114750689710905</v>
+        <v>-0.09910126721378962</v>
       </c>
       <c r="C56">
-        <v>0.0915162540299371</v>
+        <v>0.1329757585424368</v>
       </c>
       <c r="D56">
-        <v>-0.01781414786940514</v>
+        <v>-0.000473260409069901</v>
       </c>
       <c r="E56">
-        <v>-0.07442051166121973</v>
+        <v>-0.01073615507102712</v>
       </c>
       <c r="F56">
-        <v>-0.066701070197728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05547900400546018</v>
+      </c>
+      <c r="G56">
+        <v>-0.03327300750177318</v>
+      </c>
+      <c r="H56">
+        <v>0.0665333757194482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03431612821881053</v>
+        <v>-0.02416091811534957</v>
       </c>
       <c r="C57">
-        <v>0.03206305572579918</v>
+        <v>0.02804385646794689</v>
       </c>
       <c r="D57">
-        <v>-0.01954592888740798</v>
+        <v>0.02656359270424881</v>
       </c>
       <c r="E57">
-        <v>0.02871152792561863</v>
+        <v>0.00728214979202612</v>
       </c>
       <c r="F57">
-        <v>0.0541425162917112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03458381347261058</v>
+      </c>
+      <c r="G57">
+        <v>0.05345146852144275</v>
+      </c>
+      <c r="H57">
+        <v>-0.05574581851224365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1273499352778083</v>
+        <v>-0.07856481748738424</v>
       </c>
       <c r="C58">
-        <v>0.2331130250491006</v>
+        <v>0.1882028115161055</v>
       </c>
       <c r="D58">
-        <v>-0.2259376768680988</v>
+        <v>0.03290024775958646</v>
       </c>
       <c r="E58">
-        <v>-0.003569636007117017</v>
+        <v>0.2883701832916114</v>
       </c>
       <c r="F58">
-        <v>0.5406128359184973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.501258773208943</v>
+      </c>
+      <c r="G58">
+        <v>0.6755875089442234</v>
+      </c>
+      <c r="H58">
+        <v>0.2784437063702492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05109540282091529</v>
+        <v>-0.2033531081528905</v>
       </c>
       <c r="C59">
-        <v>0.03578956704591923</v>
+        <v>-0.1669251583991422</v>
       </c>
       <c r="D59">
-        <v>0.1854581740455821</v>
+        <v>-0.05608909491748175</v>
       </c>
       <c r="E59">
-        <v>0.03917142714168166</v>
+        <v>0.008734507852931242</v>
       </c>
       <c r="F59">
-        <v>0.08457661585773746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01343670633706592</v>
+      </c>
+      <c r="G59">
+        <v>0.01950753087438813</v>
+      </c>
+      <c r="H59">
+        <v>-0.01099041337663164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1167068107643544</v>
+        <v>-0.2193937249062325</v>
       </c>
       <c r="C60">
-        <v>0.1287294488574084</v>
+        <v>0.06168561979969134</v>
       </c>
       <c r="D60">
-        <v>0.006181717001364758</v>
+        <v>-0.002614437516310469</v>
       </c>
       <c r="E60">
-        <v>0.01201715923490151</v>
+        <v>0.05577102397749911</v>
       </c>
       <c r="F60">
-        <v>0.1667610815783085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08481700595345706</v>
+      </c>
+      <c r="G60">
+        <v>0.04302099652826373</v>
+      </c>
+      <c r="H60">
+        <v>-0.3861095158792753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02106797203835978</v>
+        <v>-0.01389508233436341</v>
       </c>
       <c r="C61">
-        <v>0.01333085386505411</v>
+        <v>0.05945281870502216</v>
       </c>
       <c r="D61">
-        <v>-0.0421038501637172</v>
+        <v>0.01101227344103186</v>
       </c>
       <c r="E61">
-        <v>-0.008400479239884144</v>
+        <v>-0.004087346474561845</v>
       </c>
       <c r="F61">
-        <v>0.01759860178208731</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.00848916254322348</v>
+      </c>
+      <c r="G61">
+        <v>0.02316963033621212</v>
+      </c>
+      <c r="H61">
+        <v>-0.05931971055698918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0148150644920232</v>
+        <v>-0.007619341475190537</v>
       </c>
       <c r="C63">
-        <v>0.004452366420892863</v>
+        <v>0.02170965505924011</v>
       </c>
       <c r="D63">
-        <v>-0.01902795095444165</v>
+        <v>0.009962686299692408</v>
       </c>
       <c r="E63">
-        <v>-0.0005058175257158134</v>
+        <v>-0.01000990685863069</v>
       </c>
       <c r="F63">
-        <v>0.00834070451329663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.00179525929352287</v>
+      </c>
+      <c r="G63">
+        <v>0.01451272779675038</v>
+      </c>
+      <c r="H63">
+        <v>-0.01336080094944799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03751128707485887</v>
+        <v>-0.03567303075198184</v>
       </c>
       <c r="C64">
-        <v>0.008440500990259874</v>
+        <v>0.04293362660233319</v>
       </c>
       <c r="D64">
-        <v>-0.02367179431909442</v>
+        <v>0.007219636101079984</v>
       </c>
       <c r="E64">
-        <v>-0.02328416283534529</v>
+        <v>-0.01592365989287122</v>
       </c>
       <c r="F64">
-        <v>0.01283036412950172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.006457131928204829</v>
+      </c>
+      <c r="G64">
+        <v>-0.008956432903783559</v>
+      </c>
+      <c r="H64">
+        <v>-0.04602627994975718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03656371270024111</v>
+        <v>-0.03905873826407034</v>
       </c>
       <c r="C65">
-        <v>0.02097983357114353</v>
+        <v>0.07771653474220047</v>
       </c>
       <c r="D65">
-        <v>-0.03823388275182305</v>
+        <v>0.02420158664667614</v>
       </c>
       <c r="E65">
-        <v>-0.02860186508387701</v>
+        <v>-0.007119091493451659</v>
       </c>
       <c r="F65">
-        <v>0.006466176382986637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04059625379339818</v>
+      </c>
+      <c r="G65">
+        <v>0.01666477957784676</v>
+      </c>
+      <c r="H65">
+        <v>-0.07197794106008608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02967481621453446</v>
+        <v>-0.01421639785117265</v>
       </c>
       <c r="C66">
-        <v>0.03518479150391169</v>
+        <v>0.1111667785058023</v>
       </c>
       <c r="D66">
-        <v>-0.06107390280198912</v>
+        <v>0.02373316758273849</v>
       </c>
       <c r="E66">
-        <v>-0.04885714522749041</v>
+        <v>0.007653962620066473</v>
       </c>
       <c r="F66">
-        <v>0.03250862663490105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02789162444977853</v>
+      </c>
+      <c r="G66">
+        <v>0.03786382423831743</v>
+      </c>
+      <c r="H66">
+        <v>-0.08464172857620199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01586959493619785</v>
+        <v>-0.04657863901597437</v>
       </c>
       <c r="C67">
-        <v>0.01645679037387373</v>
+        <v>0.02648219796898488</v>
       </c>
       <c r="D67">
-        <v>0.009443688660794845</v>
+        <v>-0.007441278061081734</v>
       </c>
       <c r="E67">
-        <v>0.01216605924069015</v>
+        <v>0.0009543015035299352</v>
       </c>
       <c r="F67">
-        <v>0.02626502993373181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01134124472475248</v>
+      </c>
+      <c r="G67">
+        <v>0.01684044605222394</v>
+      </c>
+      <c r="H67">
+        <v>-0.03165975071127795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06731759701513367</v>
+        <v>-0.2037542095501336</v>
       </c>
       <c r="C68">
-        <v>0.03480144281830432</v>
+        <v>-0.202888387964452</v>
       </c>
       <c r="D68">
-        <v>0.2096014942239799</v>
+        <v>-0.04234588483647538</v>
       </c>
       <c r="E68">
-        <v>0.05147556243369301</v>
+        <v>0.00763277783459167</v>
       </c>
       <c r="F68">
-        <v>0.07852962324189915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05861209097276816</v>
+      </c>
+      <c r="G68">
+        <v>0.01388875386645072</v>
+      </c>
+      <c r="H68">
+        <v>0.04429783956591463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05333852394713398</v>
+        <v>-0.05579372098525488</v>
       </c>
       <c r="C69">
-        <v>0.0433890447173095</v>
+        <v>0.06010542261225776</v>
       </c>
       <c r="D69">
-        <v>-0.01171697245261628</v>
+        <v>-0.005605561045020819</v>
       </c>
       <c r="E69">
-        <v>-0.03775668749918039</v>
+        <v>-0.005961421887219698</v>
       </c>
       <c r="F69">
-        <v>0.009059922800942347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02493837278468689</v>
+      </c>
+      <c r="G69">
+        <v>0.002553348526872226</v>
+      </c>
+      <c r="H69">
+        <v>-0.006417541420038754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07191388326458921</v>
+        <v>-0.1805040455332635</v>
       </c>
       <c r="C71">
-        <v>0.0432459087844443</v>
+        <v>-0.1599639237817817</v>
       </c>
       <c r="D71">
-        <v>0.2112940038321381</v>
+        <v>-0.04045873360871399</v>
       </c>
       <c r="E71">
-        <v>0.09026379911464955</v>
+        <v>0.01174397625259</v>
       </c>
       <c r="F71">
-        <v>0.08170259392625819</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07160888779216511</v>
+      </c>
+      <c r="G71">
+        <v>0.0131862263113596</v>
+      </c>
+      <c r="H71">
+        <v>0.02617372004681685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09273744985553276</v>
+        <v>-0.05732066349391182</v>
       </c>
       <c r="C72">
-        <v>0.09448522890162724</v>
+        <v>0.1110401885185543</v>
       </c>
       <c r="D72">
-        <v>-0.07092483811477326</v>
+        <v>0.001842254247542166</v>
       </c>
       <c r="E72">
-        <v>-0.08278607574415053</v>
+        <v>0.01626746690238111</v>
       </c>
       <c r="F72">
-        <v>0.07323900463155052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04949607035841455</v>
+      </c>
+      <c r="G72">
+        <v>0.04883909462609539</v>
+      </c>
+      <c r="H72">
+        <v>-0.09752128794159655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1400540714049862</v>
+        <v>-0.28487462875959</v>
       </c>
       <c r="C73">
-        <v>0.1991383566549272</v>
+        <v>0.1368136870566727</v>
       </c>
       <c r="D73">
-        <v>0.01231661577939653</v>
+        <v>0.01105389615073599</v>
       </c>
       <c r="E73">
-        <v>0.05929543898454646</v>
+        <v>0.09929303184222761</v>
       </c>
       <c r="F73">
-        <v>0.1983856519334003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09825017917279341</v>
+      </c>
+      <c r="G73">
+        <v>0.04831625784645893</v>
+      </c>
+      <c r="H73">
+        <v>-0.4850479551724322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1043241956251114</v>
+        <v>-0.09558130108319962</v>
       </c>
       <c r="C74">
-        <v>0.08221857318794693</v>
+        <v>0.1338347012971946</v>
       </c>
       <c r="D74">
-        <v>-0.01931513787557627</v>
+        <v>0.0003232294537278021</v>
       </c>
       <c r="E74">
-        <v>-0.0481683609699871</v>
+        <v>-0.01266880708066171</v>
       </c>
       <c r="F74">
-        <v>-0.07884590814640424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04023157601671837</v>
+      </c>
+      <c r="G74">
+        <v>-0.02230934258107568</v>
+      </c>
+      <c r="H74">
+        <v>0.04201314090309483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1868566129653648</v>
+        <v>-0.2048798432574024</v>
       </c>
       <c r="C75">
-        <v>0.1666700312152902</v>
+        <v>0.2307356120820094</v>
       </c>
       <c r="D75">
-        <v>-0.007787158824077625</v>
+        <v>-0.00976365718322846</v>
       </c>
       <c r="E75">
-        <v>-0.1598077273616509</v>
+        <v>-0.008300891063805929</v>
       </c>
       <c r="F75">
-        <v>-0.1243371614101524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1134967097811687</v>
+      </c>
+      <c r="G75">
+        <v>-0.0502611772996371</v>
+      </c>
+      <c r="H75">
+        <v>0.1474197734345988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2370357870432546</v>
+        <v>-0.1568667872726705</v>
       </c>
       <c r="C76">
-        <v>0.1576916284217094</v>
+        <v>0.2090715985509345</v>
       </c>
       <c r="D76">
-        <v>-0.02172760349910393</v>
+        <v>-0.006835128688995907</v>
       </c>
       <c r="E76">
-        <v>-0.1676488040748073</v>
+        <v>-0.04708359289623451</v>
       </c>
       <c r="F76">
-        <v>-0.2017237443646632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09102604960907297</v>
+      </c>
+      <c r="G76">
+        <v>-0.04887305146055771</v>
+      </c>
+      <c r="H76">
+        <v>0.1298557019784209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08881079629561776</v>
+        <v>-0.04708655844879838</v>
       </c>
       <c r="C77">
-        <v>0.0866255691176923</v>
+        <v>0.08691585892358218</v>
       </c>
       <c r="D77">
-        <v>-0.07657591614353221</v>
+        <v>0.02304644166861425</v>
       </c>
       <c r="E77">
-        <v>0.02235098497739233</v>
+        <v>0.01768052183486455</v>
       </c>
       <c r="F77">
-        <v>0.1366447436142282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.05170991072554475</v>
+      </c>
+      <c r="G77">
+        <v>0.0558897039795735</v>
+      </c>
+      <c r="H77">
+        <v>-0.01538952132591661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05902917468061412</v>
+        <v>-0.02420076521370828</v>
       </c>
       <c r="C78">
-        <v>0.03981948730395486</v>
+        <v>0.07941729755685538</v>
       </c>
       <c r="D78">
-        <v>-0.1086023907215137</v>
+        <v>0.01553917811657344</v>
       </c>
       <c r="E78">
-        <v>-0.04132266143903361</v>
+        <v>-0.005060169153610555</v>
       </c>
       <c r="F78">
-        <v>0.07943777634302027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.004985028789062461</v>
+      </c>
+      <c r="G78">
+        <v>0.05722679635865985</v>
+      </c>
+      <c r="H78">
+        <v>-0.09468704445310143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6709020255932636</v>
+        <v>-0.1010855282029689</v>
       </c>
       <c r="C80">
-        <v>-0.7177595322183062</v>
+        <v>0.102484293058414</v>
       </c>
       <c r="D80">
-        <v>-0.07760041878250436</v>
+        <v>0.01450782566113484</v>
       </c>
       <c r="E80">
-        <v>0.04713249371326016</v>
+        <v>-0.9126723258399297</v>
       </c>
       <c r="F80">
-        <v>0.04645197070349259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3155527338771829</v>
+      </c>
+      <c r="G80">
+        <v>0.08317091845570818</v>
+      </c>
+      <c r="H80">
+        <v>-0.03922718452554343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1469917249767404</v>
+        <v>-0.1294757731763284</v>
       </c>
       <c r="C81">
-        <v>0.1138563672335425</v>
+        <v>0.1436341168569208</v>
       </c>
       <c r="D81">
-        <v>-0.002862863273098799</v>
+        <v>-0.005410800866470595</v>
       </c>
       <c r="E81">
-        <v>-0.1185378221404304</v>
+        <v>-0.01653885156724129</v>
       </c>
       <c r="F81">
-        <v>-0.1103969703158372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06171881264573036</v>
+      </c>
+      <c r="G81">
+        <v>-0.03192967186159659</v>
+      </c>
+      <c r="H81">
+        <v>0.09100793955972737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02711232717420652</v>
+        <v>-0.02276802861112292</v>
       </c>
       <c r="C83">
-        <v>0.02734489604786118</v>
+        <v>0.02447325864072141</v>
       </c>
       <c r="D83">
-        <v>-0.02430589819037332</v>
+        <v>0.006655359289686735</v>
       </c>
       <c r="E83">
-        <v>0.01517238211099288</v>
+        <v>0.005273474885195401</v>
       </c>
       <c r="F83">
-        <v>0.05610966317903576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02240086937567008</v>
+      </c>
+      <c r="G83">
+        <v>0.03657270535031702</v>
+      </c>
+      <c r="H83">
+        <v>-0.04484637128281096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2034899193231196</v>
+        <v>-0.1865183346667146</v>
       </c>
       <c r="C85">
-        <v>0.1681801613919407</v>
+        <v>0.2228001082169156</v>
       </c>
       <c r="D85">
-        <v>-0.02040019959252227</v>
+        <v>0.00416207395588836</v>
       </c>
       <c r="E85">
-        <v>-0.1473719399410695</v>
+        <v>-0.006667891477604662</v>
       </c>
       <c r="F85">
-        <v>-0.1547549571799855</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1184321829229036</v>
+      </c>
+      <c r="G85">
+        <v>-0.07885687742878543</v>
+      </c>
+      <c r="H85">
+        <v>0.08696396724442881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008786770521975797</v>
+        <v>-0.01009093513485807</v>
       </c>
       <c r="C86">
-        <v>-0.001172748540491516</v>
+        <v>0.03567699797746905</v>
       </c>
       <c r="D86">
-        <v>-0.07887073385489612</v>
+        <v>0.01244491230995814</v>
       </c>
       <c r="E86">
-        <v>-0.002972783928988416</v>
+        <v>-0.007942515461528158</v>
       </c>
       <c r="F86">
-        <v>0.04936386381900612</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03114085888651714</v>
+      </c>
+      <c r="G86">
+        <v>0.0290610542318249</v>
+      </c>
+      <c r="H86">
+        <v>-0.07777316649454125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03120556221904709</v>
+        <v>-0.00641311543050517</v>
       </c>
       <c r="C87">
-        <v>0.02315887303738728</v>
+        <v>0.03977336639123664</v>
       </c>
       <c r="D87">
-        <v>-0.03830557622703883</v>
+        <v>0.01469559307143423</v>
       </c>
       <c r="E87">
-        <v>-0.007762713162549047</v>
+        <v>0.0005001146679439846</v>
       </c>
       <c r="F87">
-        <v>0.1049588329516335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03194875024326341</v>
+      </c>
+      <c r="G87">
+        <v>0.06858694336681326</v>
+      </c>
+      <c r="H87">
+        <v>-0.08025956443268054</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0215083211282324</v>
+        <v>-0.04417923848294412</v>
       </c>
       <c r="C88">
-        <v>0.0004950025134627579</v>
+        <v>0.01789363689352824</v>
       </c>
       <c r="D88">
-        <v>-0.0001002689399727732</v>
+        <v>0.01925866483819957</v>
       </c>
       <c r="E88">
-        <v>-0.01875984236424387</v>
+        <v>-0.02157076557726948</v>
       </c>
       <c r="F88">
-        <v>-0.01879750742557015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01918912957789888</v>
+      </c>
+      <c r="G88">
+        <v>0.0001422563426937678</v>
+      </c>
+      <c r="H88">
+        <v>-0.008184537654883745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09538062297543883</v>
+        <v>-0.3175710659575605</v>
       </c>
       <c r="C89">
-        <v>0.06137651417377489</v>
+        <v>-0.2847919850774321</v>
       </c>
       <c r="D89">
-        <v>0.342494624838507</v>
+        <v>-0.07211121053786944</v>
       </c>
       <c r="E89">
-        <v>0.05841571256882661</v>
+        <v>0.008995046443415906</v>
       </c>
       <c r="F89">
-        <v>0.1027505115805058</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0129894369686802</v>
+      </c>
+      <c r="G89">
+        <v>-0.01705618439284381</v>
+      </c>
+      <c r="H89">
+        <v>0.01296052088622523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08302254096267424</v>
+        <v>-0.2631989798902487</v>
       </c>
       <c r="C90">
-        <v>0.02680470735353091</v>
+        <v>-0.2620652396396698</v>
       </c>
       <c r="D90">
-        <v>0.3579972192320711</v>
+        <v>-0.06640158589917948</v>
       </c>
       <c r="E90">
-        <v>0.08987082954484893</v>
+        <v>0.001882896080174985</v>
       </c>
       <c r="F90">
-        <v>0.05236327571571243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05586913272298055</v>
+      </c>
+      <c r="G90">
+        <v>-0.01394472183740566</v>
+      </c>
+      <c r="H90">
+        <v>0.06202355196477929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2322379068402774</v>
+        <v>-0.1977644411465456</v>
       </c>
       <c r="C91">
-        <v>0.2130055961778687</v>
+        <v>0.2120961200937635</v>
       </c>
       <c r="D91">
-        <v>-0.02243239655960922</v>
+        <v>-0.01008391001617676</v>
       </c>
       <c r="E91">
-        <v>-0.1242654491724005</v>
+        <v>0.00316552375425443</v>
       </c>
       <c r="F91">
-        <v>-0.2381687927539229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.09935756312393597</v>
+      </c>
+      <c r="G91">
+        <v>-0.07256677531881123</v>
+      </c>
+      <c r="H91">
+        <v>0.1675697682619102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1481861408426366</v>
+        <v>-0.2808078065691456</v>
       </c>
       <c r="C92">
-        <v>0.09088289407224888</v>
+        <v>-0.1627011085304884</v>
       </c>
       <c r="D92">
-        <v>0.4291248080163618</v>
+        <v>-0.09528516208540107</v>
       </c>
       <c r="E92">
-        <v>-0.009083702068477967</v>
+        <v>-0.005025232040366507</v>
       </c>
       <c r="F92">
-        <v>-0.05982316758410072</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03540311998334347</v>
+      </c>
+      <c r="G92">
+        <v>0.02409448196088974</v>
+      </c>
+      <c r="H92">
+        <v>0.1490830313702602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08060599495347877</v>
+        <v>-0.2978278493751925</v>
       </c>
       <c r="C93">
-        <v>0.0724592937658274</v>
+        <v>-0.2586633261884038</v>
       </c>
       <c r="D93">
-        <v>0.4160094868057708</v>
+        <v>-0.07606310162524046</v>
       </c>
       <c r="E93">
-        <v>0.1286491881202676</v>
+        <v>0.03417132830415885</v>
       </c>
       <c r="F93">
-        <v>0.05878011327719758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04662476321866164</v>
+      </c>
+      <c r="G93">
+        <v>-0.02425892017357259</v>
+      </c>
+      <c r="H93">
+        <v>-0.003723430752254811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2291588157775488</v>
+        <v>-0.2442354725020952</v>
       </c>
       <c r="C94">
-        <v>0.220888899471529</v>
+        <v>0.2384915751965081</v>
       </c>
       <c r="D94">
-        <v>-0.02096622188394442</v>
+        <v>0.002120583244316143</v>
       </c>
       <c r="E94">
-        <v>-0.2336420239563553</v>
+        <v>0.008583131578520992</v>
       </c>
       <c r="F94">
-        <v>-0.1917351849743719</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2313868582433792</v>
+      </c>
+      <c r="G94">
+        <v>-0.1062109847112045</v>
+      </c>
+      <c r="H94">
+        <v>0.4091477798500801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.001582741512716649</v>
+        <v>-0.02925823094875974</v>
       </c>
       <c r="C95">
-        <v>0.08577368787500311</v>
+        <v>0.1013852467707224</v>
       </c>
       <c r="D95">
-        <v>-0.03666349850733367</v>
+        <v>0.005757856556696365</v>
       </c>
       <c r="E95">
-        <v>-0.02526838163383586</v>
+        <v>0.08302515286113689</v>
       </c>
       <c r="F95">
-        <v>0.01689237993373711</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02439567332887249</v>
+      </c>
+      <c r="G95">
+        <v>0.03462602802677959</v>
+      </c>
+      <c r="H95">
+        <v>-0.03695632461894832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1179206495603431</v>
+        <v>-0.1861233264149322</v>
       </c>
       <c r="C98">
-        <v>0.130431127302497</v>
+        <v>0.06782267690757515</v>
       </c>
       <c r="D98">
-        <v>0.01442642263280135</v>
+        <v>-0.02453720862601393</v>
       </c>
       <c r="E98">
-        <v>0.06121076490770793</v>
+        <v>0.06602923174031999</v>
       </c>
       <c r="F98">
-        <v>0.1676892365934688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.00532702273579458</v>
+      </c>
+      <c r="G98">
+        <v>0.06288187945192096</v>
+      </c>
+      <c r="H98">
+        <v>-0.3278675680541095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01243715850311726</v>
+        <v>-0.008297497876636226</v>
       </c>
       <c r="C101">
-        <v>-0.0001448140205401985</v>
+        <v>0.01924841849382209</v>
       </c>
       <c r="D101">
-        <v>-0.05876156670826922</v>
+        <v>0.008661936391693825</v>
       </c>
       <c r="E101">
-        <v>-0.02862279387894172</v>
+        <v>6.69244331686266e-05</v>
       </c>
       <c r="F101">
-        <v>0.1686220277765625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03562824962607389</v>
+      </c>
+      <c r="G101">
+        <v>0.08780177749080277</v>
+      </c>
+      <c r="H101">
+        <v>0.008064421643713649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09403117106468906</v>
+        <v>-0.09411834706761241</v>
       </c>
       <c r="C102">
-        <v>0.07200263404668397</v>
+        <v>0.1063083919360181</v>
       </c>
       <c r="D102">
-        <v>-0.01120665707260338</v>
+        <v>0.008362573183418511</v>
       </c>
       <c r="E102">
-        <v>-0.07641539954004119</v>
+        <v>-0.007789131663902906</v>
       </c>
       <c r="F102">
-        <v>-0.09312931190746698</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06180014696805548</v>
+      </c>
+      <c r="G102">
+        <v>-0.03265827042202584</v>
+      </c>
+      <c r="H102">
+        <v>0.06352659173602233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04385855031862768</v>
+        <v>-0.01157187742595626</v>
       </c>
       <c r="C103">
-        <v>0.01944122483595323</v>
+        <v>0.0189437570862168</v>
       </c>
       <c r="D103">
-        <v>-0.0197827787266881</v>
+        <v>0.001551916559484311</v>
       </c>
       <c r="E103">
-        <v>-0.04230961886071769</v>
+        <v>-0.01301077062039953</v>
       </c>
       <c r="F103">
-        <v>-0.009668497210865892</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.000179350475140014</v>
+      </c>
+      <c r="G103">
+        <v>0.006950432782099642</v>
+      </c>
+      <c r="H103">
+        <v>0.01607734607291511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1117147417568888</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.1818658732637131</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.962336465689138</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02619463313797447</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.111224892140614</v>
+      </c>
+      <c r="G104">
+        <v>0.05500090138323717</v>
+      </c>
+      <c r="H104">
+        <v>0.05561786755605809</v>
       </c>
     </row>
   </sheetData>
